--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jimne\Google Drive\Poly Stuff\CSC 466\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE141108-007A-4E77-B79F-9FA76FBD9702}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A46B5-A788-4BAA-8ADA-BEED9DDE19AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{68E9B216-162B-4298-ADE0-7304727241E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{68E9B216-162B-4298-ADE0-7304727241E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KNN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Method</t>
   </si>
@@ -218,12 +219,15 @@
   <si>
     <t>user-based, adjusted, knn</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +259,13 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -308,6 +319,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,6 +727,951 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="782832400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Method 12: Variations of K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KNN!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B7E-47F4-B059-7393EEC8A409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KNN!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B7E-47F4-B059-7393EEC8A409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KNN!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B7E-47F4-B059-7393EEC8A409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KNN!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>KNN!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KNN!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B7E-47F4-B059-7393EEC8A409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="802307000"/>
+        <c:axId val="802308312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="802307000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802308312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="802308312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802307000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3675,7 +4634,1131 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Everything</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>item-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>user-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>item-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>user-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>item-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>user-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>item-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>user-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>item-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>user-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>item-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>user-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>item-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>user-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>item-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>user-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29DA-47CF-8E01-75A2F282E800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>item-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>user-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>item-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>user-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>item-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>user-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>item-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>user-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>item-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>user-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>item-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>user-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>item-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>user-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>item-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>user-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29DA-47CF-8E01-75A2F282E800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>item-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>user-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>item-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>user-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>item-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>user-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>item-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>user-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>item-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>user-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>item-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>user-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>item-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>user-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>item-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>user-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29DA-47CF-8E01-75A2F282E800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>item-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>user-based, no adjust, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>item-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>user-based, adjusted, no knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>item-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>user-based, no adjust, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>item-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>user-based, adjusted, knn, cosine similarity</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>item-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>user-based, no adjust, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>item-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>user-based, adjusted, no knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>item-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>user-based, no adjust, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>item-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>user-based, adjusted, knn, pearson similarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-29DA-47CF-8E01-75A2F282E800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="817219088"/>
+        <c:axId val="817214168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="817219088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817214168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="817214168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817219088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3995,6 +6078,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4498,7 +6621,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5001,7 +7124,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5504,7 +7627,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6007,7 +8130,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6510,7 +8633,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7013,7 +9136,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7516,7 +9639,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8309,6 +11438,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EAE4EA-1E44-468D-9DAD-CADFC2B12E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD2AF7D-34D5-4A40-8AC9-02D398206223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8611,8 +11817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CBC86C-52FC-4363-92C2-B636B9BD0D4A}">
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U57" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42:W58"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9789,4 +12995,207 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA0382C-A741-4C7A-A724-55EA8B0601A6}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>